--- a/results/better results/resultssetcount2.xlsx
+++ b/results/better results/resultssetcount2.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam Wagner\Documents\Masterarbeit\PythonCode\results\better results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AF2099-3650-48E1-95FA-846B12A06B3D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
     <sheet name="setcount" sheetId="2" r:id="rId2"/>
-    <sheet name="set dev" sheetId="3" r:id="rId3"/>
+    <sheet name="set count dev" sheetId="3" r:id="rId3"/>
+    <sheet name="gemiddeld" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="21">
   <si>
     <t>fitness</t>
   </si>
@@ -68,12 +83,24 @@
   <si>
     <t>dev bound</t>
   </si>
+  <si>
+    <t>set count</t>
+  </si>
+  <si>
+    <t>set count dev</t>
+  </si>
+  <si>
+    <t>f1-score</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,15 +133,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -156,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,9 +223,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,6 +275,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,14 +468,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,12 +483,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.164739833380401</v>
+        <v>0.16473983338040099</v>
       </c>
     </row>
   </sheetData>
@@ -426,14 +497,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -473,8 +546,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -494,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2184058175656595</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -509,10 +585,14 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>79.88679146766663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>79.886791467666626</v>
+      </c>
+      <c r="N2">
+        <f>2*G2*F2/(G2+F2)</f>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -532,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2184058175656595</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -547,10 +627,14 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>77.70481586456299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>77.704815864562988</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N17" si="0">2*G3*F3/(G3+F3)</f>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -570,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2184058175656595</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -585,10 +669,14 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>76.30552101135254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>76.305521011352539</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -608,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2184058175656595</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -623,10 +711,14 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>78.90201330184937</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>78.902013301849365</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -646,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2184058175656595</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -661,10 +753,14 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>76.34798622131348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>76.347986221313477</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -684,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2184058175656595</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -699,10 +795,14 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>78.33998227119446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>78.339982271194458</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -722,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2184058175656595</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -737,10 +837,14 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>78.95447373390198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>78.954473733901978</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
@@ -760,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2184058175656595</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -775,10 +879,14 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>78.92837953567505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>78.928379535675049</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -798,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2184058175656595</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -813,10 +921,14 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>76.55953884124756</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>76.559538841247559</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -836,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2184058175656595</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -851,10 +963,14 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>78.54948425292969</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>78.549484252929688</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -874,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2184058175656595</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -889,10 +1005,14 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>80.23847079277039</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>80.238470792770386</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -912,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2184058175656595</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -927,10 +1047,14 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>77.48591089248657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>77.485910892486572</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
@@ -950,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2184058175656595</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -967,8 +1091,12 @@
       <c r="L14">
         <v>77.48276162147522</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -988,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2184058175656595</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1003,10 +1131,14 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>69.35268402099609</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>69.352684020996094</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1026,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2184058175656595</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1043,8 +1175,12 @@
       <c r="L16">
         <v>63.48964262008667</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1064,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2184058175656595</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1079,10 +1215,14 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>66.39316177368164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>66.393161773681641</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1117,13 +1257,13 @@
         <v>-1</v>
       </c>
       <c r="L18">
-        <v>100.0517122745514</v>
+        <v>100.05171227455141</v>
       </c>
       <c r="M18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1158,13 +1298,13 @@
         <v>-1</v>
       </c>
       <c r="L19">
-        <v>100.025995016098</v>
+        <v>100.02599501609799</v>
       </c>
       <c r="M19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>8</v>
       </c>
@@ -1205,7 +1345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1246,7 +1386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>8</v>
       </c>
@@ -1281,13 +1421,13 @@
         <v>-1</v>
       </c>
       <c r="L22">
-        <v>100.0421211719513</v>
+        <v>100.04212117195129</v>
       </c>
       <c r="M22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1328,7 +1468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>8</v>
       </c>
@@ -1369,7 +1509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>8</v>
       </c>
@@ -1410,7 +1550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>8</v>
       </c>
@@ -1451,7 +1591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1492,7 +1632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>8</v>
       </c>
@@ -1527,13 +1667,13 @@
         <v>-1</v>
       </c>
       <c r="L28">
-        <v>100.040961265564</v>
+        <v>100.04096126556399</v>
       </c>
       <c r="M28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>8</v>
       </c>
@@ -1574,7 +1714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>8</v>
       </c>
@@ -1615,7 +1755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>8</v>
       </c>
@@ -1650,13 +1790,13 @@
         <v>-1</v>
       </c>
       <c r="L31">
-        <v>100.0500223636627</v>
+        <v>100.05002236366271</v>
       </c>
       <c r="M31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>8</v>
       </c>
@@ -1697,7 +1837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>8</v>
       </c>
@@ -1732,13 +1872,13 @@
         <v>-1</v>
       </c>
       <c r="L33">
-        <v>100.0378828048706</v>
+        <v>100.03788280487061</v>
       </c>
       <c r="M33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>16</v>
       </c>
@@ -1779,7 +1919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>16</v>
       </c>
@@ -1820,7 +1960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>16</v>
       </c>
@@ -1855,13 +1995,13 @@
         <v>-1</v>
       </c>
       <c r="L36">
-        <v>100.0494320392609</v>
+        <v>100.04943203926091</v>
       </c>
       <c r="M36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>16</v>
       </c>
@@ -1902,7 +2042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>16</v>
       </c>
@@ -1943,7 +2083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>16</v>
       </c>
@@ -1984,7 +2124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>16</v>
       </c>
@@ -2025,7 +2165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>16</v>
       </c>
@@ -2066,7 +2206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>16</v>
       </c>
@@ -2107,7 +2247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>16</v>
       </c>
@@ -2148,7 +2288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>16</v>
       </c>
@@ -2189,7 +2329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>16</v>
       </c>
@@ -2230,7 +2370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>16</v>
       </c>
@@ -2271,7 +2411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>16</v>
       </c>
@@ -2306,13 +2446,13 @@
         <v>-1</v>
       </c>
       <c r="L47">
-        <v>100.0466187000275</v>
+        <v>100.04661870002749</v>
       </c>
       <c r="M47" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>16</v>
       </c>
@@ -2353,7 +2493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>16</v>
       </c>
@@ -2400,14 +2540,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41:O49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="15" max="15" width="15.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2451,7 +2596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2462,10 +2607,10 @@
         <v>0.4</v>
       </c>
       <c r="D2">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2474,30 +2619,33 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.2184058175656595</v>
+        <v>-1</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>35</v>
       </c>
       <c r="K2">
-        <v>13717</v>
+        <v>13709</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>97.05900549888611</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>100.0518326759338</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>0.4</v>
@@ -2515,30 +2663,33 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.2184058175656595</v>
+        <v>-1</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K3">
-        <v>13709</v>
+        <v>13113</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>98.45649862289429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>100.0848250389099</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C4">
         <v>0.4</v>
@@ -2547,7 +2698,7 @@
         <v>0.9</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2556,25 +2707,28 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.2184058175656595</v>
+        <v>-1</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>13717</v>
+        <v>13616</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>98.04117178916931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>100.0452308654785</v>
+      </c>
+      <c r="N4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2582,10 +2736,10 @@
         <v>40</v>
       </c>
       <c r="C5">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D5">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -2600,10 +2754,10 @@
         <v>-1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K5">
         <v>13709</v>
@@ -2612,27 +2766,27 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>100.0518326759338</v>
+        <v>100.0572144985199</v>
       </c>
       <c r="N5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D6">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2641,25 +2795,28 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.2184058175656595</v>
+        <v>-1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>13717</v>
+        <v>13832</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>98.95793294906616</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>100.047149181366</v>
+      </c>
+      <c r="N6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2667,7 +2824,7 @@
         <v>80</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D7">
         <v>0.7</v>
@@ -2688,22 +2845,22 @@
         <v>3</v>
       </c>
       <c r="J7">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>13113</v>
+        <v>13355</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>100.0848250389099</v>
+        <v>100.04388165473939</v>
       </c>
       <c r="N7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2711,13 +2868,13 @@
         <v>80</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D8">
         <v>0.9</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2726,409 +2883,424 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.2184058175656595</v>
+        <v>-1</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>12950</v>
+        <v>13616</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>98.7134382724762</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>100.0627725124359</v>
+      </c>
+      <c r="N8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>0.4</v>
       </c>
       <c r="D9">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H9">
         <v>-1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J9">
-        <v>43</v>
+        <v>-1</v>
       </c>
       <c r="K9">
-        <v>13616</v>
+        <v>-1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M9">
-        <v>100.0452308654785</v>
+        <v>100.01753354072569</v>
       </c>
       <c r="N9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>40</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
         <v>0.7</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H10">
-        <v>0.2184058175656595</v>
+        <v>-1</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J10">
-        <v>38</v>
+        <v>-1</v>
       </c>
       <c r="K10">
-        <v>13840</v>
+        <v>-1</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M10">
-        <v>98.31193566322327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>100.0389199256897</v>
+      </c>
+      <c r="N10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>40</v>
       </c>
       <c r="C11">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H11">
         <v>-1</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J11">
-        <v>38</v>
+        <v>-1</v>
       </c>
       <c r="K11">
-        <v>13709</v>
+        <v>-1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M11">
-        <v>100.0572144985199</v>
+        <v>100.0438380241394</v>
       </c>
       <c r="N11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>40</v>
       </c>
       <c r="C12">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D12">
         <v>0.9</v>
       </c>
       <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+      <c r="H12">
+        <v>-1</v>
+      </c>
+      <c r="I12">
+        <v>-1</v>
+      </c>
+      <c r="J12">
+        <v>-1</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
+        <v>-1</v>
+      </c>
+      <c r="M12">
+        <v>100.032543182373</v>
+      </c>
+      <c r="N12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>0.4</v>
+      </c>
+      <c r="D13">
+        <v>0.7</v>
+      </c>
+      <c r="E13" t="s">
         <v>13</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0.2184058175656595</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>38</v>
-      </c>
-      <c r="K12">
-        <v>13717</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>98.64292335510254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>40</v>
-      </c>
-      <c r="C13">
-        <v>0.8</v>
-      </c>
-      <c r="D13">
-        <v>0.9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H13">
         <v>-1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J13">
-        <v>38</v>
+        <v>-1</v>
       </c>
       <c r="K13">
-        <v>13832</v>
+        <v>-1</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M13">
-        <v>100.047149181366</v>
+        <v>100.0413899421692</v>
       </c>
       <c r="N13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>80</v>
       </c>
       <c r="C14">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D14">
         <v>0.7</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H14">
-        <v>0.2184058175656595</v>
+        <v>-1</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J14">
-        <v>51</v>
+        <v>-1</v>
       </c>
       <c r="K14">
-        <v>13717</v>
+        <v>-1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M14">
-        <v>97.94425773620605</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>100.060937166214</v>
+      </c>
+      <c r="N14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>80</v>
       </c>
       <c r="C15">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D15">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H15">
         <v>-1</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J15">
-        <v>46</v>
+        <v>-1</v>
       </c>
       <c r="K15">
-        <v>13355</v>
+        <v>-1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M15">
-        <v>100.0438816547394</v>
+        <v>100.0467412471771</v>
       </c>
       <c r="N15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>80</v>
       </c>
       <c r="C16">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D16">
         <v>0.9</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H16">
-        <v>0.2184058175656595</v>
+        <v>-1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J16">
-        <v>46</v>
+        <v>-1</v>
       </c>
       <c r="K16">
-        <v>13840</v>
+        <v>-1</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M16">
-        <v>98.60363674163818</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>100.0163090229034</v>
+      </c>
+      <c r="N16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>0.8</v>
       </c>
       <c r="D17">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H17">
         <v>-1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J17">
-        <v>47</v>
+        <v>-1</v>
       </c>
       <c r="K17">
-        <v>13616</v>
+        <v>-1</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M17">
-        <v>100.0627725124359</v>
+        <v>100.04642915725709</v>
       </c>
       <c r="N17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>8</v>
       </c>
@@ -3136,13 +3308,13 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D18">
         <v>0.7</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -3166,13 +3338,13 @@
         <v>-1</v>
       </c>
       <c r="M18">
-        <v>100.0175335407257</v>
+        <v>100.0460889339447</v>
       </c>
       <c r="N18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8</v>
       </c>
@@ -3180,13 +3352,13 @@
         <v>40</v>
       </c>
       <c r="C19">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D19">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -3210,13 +3382,13 @@
         <v>-1</v>
       </c>
       <c r="M19">
-        <v>100.0389199256897</v>
+        <v>100.0404844284058</v>
       </c>
       <c r="N19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>8</v>
       </c>
@@ -3224,13 +3396,13 @@
         <v>40</v>
       </c>
       <c r="C20">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D20">
         <v>0.9</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -3254,27 +3426,27 @@
         <v>-1</v>
       </c>
       <c r="M20">
-        <v>100.0438380241394</v>
+        <v>100.0290167331696</v>
       </c>
       <c r="N20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>8</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C21">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D21">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -3298,13 +3470,13 @@
         <v>-1</v>
       </c>
       <c r="M21">
-        <v>100.032543182373</v>
+        <v>100.0393071174622</v>
       </c>
       <c r="N21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>8</v>
       </c>
@@ -3312,13 +3484,13 @@
         <v>80</v>
       </c>
       <c r="C22">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D22">
         <v>0.7</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -3342,13 +3514,13 @@
         <v>-1</v>
       </c>
       <c r="M22">
-        <v>100.0413899421692</v>
+        <v>100.0447175502777</v>
       </c>
       <c r="N22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>8</v>
       </c>
@@ -3356,13 +3528,13 @@
         <v>80</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D23">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -3386,13 +3558,13 @@
         <v>-1</v>
       </c>
       <c r="M23">
-        <v>100.060937166214</v>
+        <v>100.05780029296881</v>
       </c>
       <c r="N23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>8</v>
       </c>
@@ -3400,13 +3572,13 @@
         <v>80</v>
       </c>
       <c r="C24">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D24">
         <v>0.9</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -3430,27 +3602,27 @@
         <v>-1</v>
       </c>
       <c r="M24">
-        <v>100.0467412471771</v>
+        <v>100.02136969566349</v>
       </c>
       <c r="N24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>0.4</v>
       </c>
       <c r="D25">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -3474,27 +3646,27 @@
         <v>-1</v>
       </c>
       <c r="M25">
-        <v>100.0163090229034</v>
+        <v>100.0559983253479</v>
       </c>
       <c r="N25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B26">
         <v>40</v>
       </c>
       <c r="C26">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D26">
         <v>0.7</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -3518,27 +3690,27 @@
         <v>-1</v>
       </c>
       <c r="M26">
-        <v>100.0464291572571</v>
+        <v>100.0459935665131</v>
       </c>
       <c r="N26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B27">
         <v>40</v>
       </c>
       <c r="C27">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D27">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -3562,72 +3734,72 @@
         <v>-1</v>
       </c>
       <c r="M27">
-        <v>100.0460889339447</v>
+        <v>100.0289745330811</v>
       </c>
       <c r="N27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B28">
         <v>40</v>
       </c>
       <c r="C28">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D28">
         <v>0.9</v>
       </c>
       <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+      <c r="H28">
+        <v>-1</v>
+      </c>
+      <c r="I28">
+        <v>-1</v>
+      </c>
+      <c r="J28">
+        <v>-1</v>
+      </c>
+      <c r="K28">
+        <v>-1</v>
+      </c>
+      <c r="L28">
+        <v>-1</v>
+      </c>
+      <c r="M28">
+        <v>100.04300808906559</v>
+      </c>
+      <c r="N28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>80</v>
+      </c>
+      <c r="C29">
+        <v>0.4</v>
+      </c>
+      <c r="D29">
+        <v>0.7</v>
+      </c>
+      <c r="E29" t="s">
         <v>13</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>-1</v>
-      </c>
-      <c r="H28">
-        <v>-1</v>
-      </c>
-      <c r="I28">
-        <v>-1</v>
-      </c>
-      <c r="J28">
-        <v>-1</v>
-      </c>
-      <c r="K28">
-        <v>-1</v>
-      </c>
-      <c r="L28">
-        <v>-1</v>
-      </c>
-      <c r="M28">
-        <v>100.0404844284058</v>
-      </c>
-      <c r="N28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29">
-        <v>8</v>
-      </c>
-      <c r="B29">
-        <v>40</v>
-      </c>
-      <c r="C29">
-        <v>0.8</v>
-      </c>
-      <c r="D29">
-        <v>0.9</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
       <c r="F29">
         <v>1</v>
       </c>
@@ -3650,27 +3822,27 @@
         <v>-1</v>
       </c>
       <c r="M29">
-        <v>100.0290167331696</v>
+        <v>100.06030035018919</v>
       </c>
       <c r="N29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B30">
         <v>80</v>
       </c>
       <c r="C30">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D30">
         <v>0.7</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -3694,27 +3866,27 @@
         <v>-1</v>
       </c>
       <c r="M30">
-        <v>100.0393071174622</v>
+        <v>100.0254950523376</v>
       </c>
       <c r="N30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B31">
         <v>80</v>
       </c>
       <c r="C31">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D31">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -3738,27 +3910,27 @@
         <v>-1</v>
       </c>
       <c r="M31">
-        <v>100.0447175502777</v>
+        <v>100.0359251499176</v>
       </c>
       <c r="N31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B32">
         <v>80</v>
       </c>
       <c r="C32">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D32">
         <v>0.9</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -3782,27 +3954,27 @@
         <v>-1</v>
       </c>
       <c r="M32">
-        <v>100.0578002929688</v>
+        <v>100.04219746589661</v>
       </c>
       <c r="N32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B33">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C33">
         <v>0.8</v>
       </c>
       <c r="D33">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -3826,13 +3998,13 @@
         <v>-1</v>
       </c>
       <c r="M33">
-        <v>100.0213696956635</v>
+        <v>100.0389239788055</v>
       </c>
       <c r="N33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>16</v>
       </c>
@@ -3840,13 +4012,13 @@
         <v>40</v>
       </c>
       <c r="C34">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D34">
         <v>0.7</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -3870,13 +4042,13 @@
         <v>-1</v>
       </c>
       <c r="M34">
-        <v>100.0559983253479</v>
+        <v>100.056360244751</v>
       </c>
       <c r="N34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>16</v>
       </c>
@@ -3884,13 +4056,13 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D35">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -3914,13 +4086,13 @@
         <v>-1</v>
       </c>
       <c r="M35">
-        <v>100.0459935665131</v>
+        <v>100.02600836753849</v>
       </c>
       <c r="N35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>16</v>
       </c>
@@ -3928,13 +4100,13 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D36">
         <v>0.9</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3958,27 +4130,27 @@
         <v>-1</v>
       </c>
       <c r="M36">
-        <v>100.0289745330811</v>
+        <v>100.0440299510956</v>
       </c>
       <c r="N36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>16</v>
       </c>
       <c r="B37">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C37">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D37">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -4002,13 +4174,13 @@
         <v>-1</v>
       </c>
       <c r="M37">
-        <v>100.0430080890656</v>
+        <v>100.0410497188568</v>
       </c>
       <c r="N37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>16</v>
       </c>
@@ -4016,13 +4188,13 @@
         <v>80</v>
       </c>
       <c r="C38">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D38">
         <v>0.7</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -4046,13 +4218,13 @@
         <v>-1</v>
       </c>
       <c r="M38">
-        <v>100.0603003501892</v>
+        <v>100.0403842926025</v>
       </c>
       <c r="N38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>16</v>
       </c>
@@ -4060,13 +4232,13 @@
         <v>80</v>
       </c>
       <c r="C39">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D39">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -4090,13 +4262,13 @@
         <v>-1</v>
       </c>
       <c r="M39">
-        <v>100.0254950523376</v>
+        <v>100.034679889679</v>
       </c>
       <c r="N39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>16</v>
       </c>
@@ -4104,13 +4276,13 @@
         <v>80</v>
       </c>
       <c r="C40">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D40">
         <v>0.9</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -4134,156 +4306,159 @@
         <v>-1</v>
       </c>
       <c r="M40">
-        <v>100.0359251499176</v>
+        <v>100.03891539573669</v>
       </c>
       <c r="N40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B41">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C41">
         <v>0.4</v>
       </c>
       <c r="D41">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>-1</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="I41">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J41">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="K41">
-        <v>-1</v>
+        <v>13717</v>
       </c>
       <c r="L41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>100.0421974658966</v>
-      </c>
-      <c r="N41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>97.059005498886108</v>
+      </c>
+      <c r="O41">
+        <f>G41*2*H41/(H41+G41)</f>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B42">
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D42">
         <v>0.7</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>-1</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="I42">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J42">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="K42">
-        <v>-1</v>
+        <v>13709</v>
       </c>
       <c r="L42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>100.0389239788055</v>
-      </c>
-      <c r="N42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>98.456498622894287</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ref="O42:O49" si="0">G42*2*H42/(H42+G42)</f>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B43">
         <v>40</v>
       </c>
       <c r="C43">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D43">
+        <v>0.9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0.21840581756565949</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>35</v>
+      </c>
+      <c r="K43">
+        <v>13717</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>98.041171789169312</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="0"/>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>80</v>
+      </c>
+      <c r="C44">
+        <v>0.4</v>
+      </c>
+      <c r="D44">
         <v>0.7</v>
-      </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>-1</v>
-      </c>
-      <c r="H43">
-        <v>-1</v>
-      </c>
-      <c r="I43">
-        <v>-1</v>
-      </c>
-      <c r="J43">
-        <v>-1</v>
-      </c>
-      <c r="K43">
-        <v>-1</v>
-      </c>
-      <c r="L43">
-        <v>-1</v>
-      </c>
-      <c r="M43">
-        <v>100.056360244751</v>
-      </c>
-      <c r="N43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44">
-        <v>16</v>
-      </c>
-      <c r="B44">
-        <v>40</v>
-      </c>
-      <c r="C44">
-        <v>0.8</v>
-      </c>
-      <c r="D44">
-        <v>0.9</v>
       </c>
       <c r="E44" t="s">
         <v>13</v>
@@ -4292,80 +4467,82 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>-1</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="I44">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J44">
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="K44">
-        <v>-1</v>
+        <v>13717</v>
       </c>
       <c r="L44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>100.0260083675385</v>
-      </c>
-      <c r="N44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>98.957932949066162</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="0"/>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B45">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C45">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D45">
         <v>0.9</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>-1</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="I45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>-1</v>
+        <v>12950</v>
       </c>
       <c r="L45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>100.0440299510956</v>
-      </c>
-      <c r="N45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>98.713438272476196</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="0"/>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B46">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C46">
         <v>0.8</v>
@@ -4380,77 +4557,79 @@
         <v>1</v>
       </c>
       <c r="G46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>-1</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="I46">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J46">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="K46">
-        <v>-1</v>
+        <v>13840</v>
       </c>
       <c r="L46">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>100.0410497188568</v>
-      </c>
-      <c r="N46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>98.311935663223267</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="0"/>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B47">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C47">
         <v>0.8</v>
       </c>
       <c r="D47">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>-1</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="I47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="K47">
-        <v>-1</v>
+        <v>13717</v>
       </c>
       <c r="L47">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>100.0403842926025</v>
-      </c>
-      <c r="N47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>98.642923355102539</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="0"/>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B48">
         <v>80</v>
@@ -4459,7 +4638,7 @@
         <v>0.8</v>
       </c>
       <c r="D48">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E48" t="s">
         <v>13</v>
@@ -4468,33 +4647,34 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>-1</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="I48">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J48">
-        <v>-1</v>
+        <v>51</v>
       </c>
       <c r="K48">
-        <v>-1</v>
+        <v>13717</v>
       </c>
       <c r="L48">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>100.034679889679</v>
-      </c>
-      <c r="N48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>97.944257736206055</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="0"/>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B49">
         <v>80</v>
@@ -4506,34 +4686,100 @@
         <v>0.9</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>-1</v>
+        <v>0.21840581756565949</v>
       </c>
       <c r="I49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>-1</v>
+        <v>46</v>
       </c>
       <c r="K49">
-        <v>-1</v>
+        <v>13840</v>
       </c>
       <c r="L49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>100.0389153957367</v>
-      </c>
-      <c r="N49" t="s">
-        <v>15</v>
+        <v>98.603636741638184</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="0"/>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N49">
+    <sortCondition descending="1" ref="N3"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4709B6-6A0D-457E-AFB6-EADC54F71714}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <f>SUM(setcount!N2:N17)/15</f>
+        <v>0.38241151190303729</v>
+      </c>
+      <c r="C2">
+        <f>SUM('set count dev'!O41:O49)/9</f>
+        <v>0.35851079240909756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <f>SUM(setcount!J2:J17)/15</f>
+        <v>14513.266666666666</v>
+      </c>
+      <c r="C3">
+        <f>SUM('set count dev'!K41:K49)/9</f>
+        <v>13658.222222222223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <f>SUM(setcount!L2:L17)/15</f>
+        <v>80.994774548212689</v>
+      </c>
+      <c r="C4">
+        <f>SUM('set count dev'!M41:M49)/9</f>
+        <v>98.303422292073563</v>
       </c>
     </row>
   </sheetData>

--- a/results/better results/resultssetcount2.xlsx
+++ b/results/better results/resultssetcount2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam Wagner\Documents\Masterarbeit\PythonCode\results\better results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AF2099-3650-48E1-95FA-846B12A06B3D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129B661C-CF8F-4EC6-840F-C96F0F2F26CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="21">
   <si>
     <t>fitness</t>
   </si>
@@ -500,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -2543,7 +2543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="O41" sqref="O41:O49"/>
     </sheetView>
   </sheetViews>
@@ -4727,10 +4727,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4709B6-6A0D-457E-AFB6-EADC54F71714}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4748,8 +4748,8 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <f>SUM(setcount!N2:N17)/15</f>
-        <v>0.38241151190303729</v>
+        <f>SUM(setcount!N2:N17)/16</f>
+        <v>0.35851079240909745</v>
       </c>
       <c r="C2">
         <f>SUM('set count dev'!O41:O49)/9</f>
@@ -4761,8 +4761,8 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <f>SUM(setcount!J2:J17)/15</f>
-        <v>14513.266666666666</v>
+        <f>SUM(setcount!J2:J17)/16</f>
+        <v>13606.1875</v>
       </c>
       <c r="C3">
         <f>SUM('set count dev'!K41:K49)/9</f>
@@ -4774,12 +4774,38 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <f>SUM(setcount!L2:L17)/15</f>
-        <v>80.994774548212689</v>
+        <f>SUM(setcount!L2:L17)/16</f>
+        <v>75.932601138949394</v>
       </c>
       <c r="C4">
         <f>SUM('set count dev'!M41:M49)/9</f>
         <v>98.303422292073563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f>SUM(setcount!G2:G17)/16</f>
+        <v>0.21840581756565947</v>
+      </c>
+      <c r="C5">
+        <f>SUM('set count dev'!H41:H49)/9</f>
+        <v>0.21840581756565952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <f>SUM(setcount!F2:F17)/16</f>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f>SUM('set count dev'!G41:G49)/9</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
